--- a/tp1/tp1-alumnos/salida_ejercicio7.tsk_.xlsx
+++ b/tp1/tp1-alumnos/salida_ejercicio7.tsk_.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="salida_ejercicio7.tsk_.csv" sheetId="1" r:id="rId1"/>
@@ -580,8 +580,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2111473912"/>
-        <c:axId val="2113617256"/>
+        <c:axId val="2066105000"/>
+        <c:axId val="2073444136"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -678,11 +678,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2141535656"/>
-        <c:axId val="2141977016"/>
+        <c:axId val="2074744472"/>
+        <c:axId val="2074703048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2111473912"/>
+        <c:axId val="2066105000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -691,7 +691,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113617256"/>
+        <c:crossAx val="2073444136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -699,7 +699,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113617256"/>
+        <c:axId val="2073444136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -715,12 +715,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2111473912"/>
+        <c:crossAx val="2066105000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2141977016"/>
+        <c:axId val="2074703048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -730,12 +730,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141535656"/>
+        <c:crossAx val="2074744472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2141535656"/>
+        <c:axId val="2074744472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -744,7 +744,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141977016"/>
+        <c:crossAx val="2074703048"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -769,772 +770,6 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>2  CORES, LOTE DE TAREAS CON BLOQUEO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> PARCIAL</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>salida_ejercicio7.tsk_.csv!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ÚLTIMO TICK</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>salida_ejercicio7.tsk_.csv!$B$52:$B$72</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>41.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>salida_ejercicio7.tsk_.csv!$C$52:$C$68</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1278.72</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>890.242</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>798.146</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>761.1660000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>739.888</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>728.624</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>722.502</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>716.204</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>713.504</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>711.948</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>711.496</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>711.346</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>710.534</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>711.26</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>709.422</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>709.674</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>707.684</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>salida_ejercicio7.tsk_.csv!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TIEMPO ESPERA PROMEDIO</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>salida_ejercicio7.tsk_.csv!$B$52:$B$72</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>41.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>salida_ejercicio7.tsk_.csv!$D$52:$D$68</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1047.43</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>655.135</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>569.992</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>532.594</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>510.636</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>502.549</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>496.303</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>488.431</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>485.838</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>484.831</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>485.187</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>483.462</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>484.218</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>484.205</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>481.778</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>485.224</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>480.645</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>salida_ejercicio7.tsk_.csv!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TIEMPO ESPERA MÁXIMO</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>salida_ejercicio7.tsk_.csv!$B$52:$B$72</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>41.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>salida_ejercicio7.tsk_.csv!$D$52:$D$68</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1047.43</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>655.135</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>569.992</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>532.594</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>510.636</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>502.549</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>496.303</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>488.431</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>485.838</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>484.831</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>485.187</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>483.462</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>484.218</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>484.205</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>481.778</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>485.224</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>480.645</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2112656776"/>
-        <c:axId val="2143812536"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>salida_ejercicio7.tsk_.csv!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EFICIENCIA EN USO DE CPU (%)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>salida_ejercicio7.tsk_.csv!$B$52:$B$72</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>41.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>salida_ejercicio7.tsk_.csv!$F$52:$F$68</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>30.3836</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43.6659</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>48.6914</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>51.0582</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>52.5276</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>53.3431</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>53.7981</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>54.27</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>54.4765</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>54.5968</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>54.6315</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>54.6459</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>54.7055</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>54.6523</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>54.795</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>54.775</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>54.926</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2146735880"/>
-        <c:axId val="2146731800"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2112656776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143812536"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2143812536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9525">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="2112656776"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2146731800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146735880"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="2146735880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146731800"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
@@ -2005,8 +1240,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2141716920"/>
-        <c:axId val="-2137854968"/>
+        <c:axId val="2067467672"/>
+        <c:axId val="2067559032"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2100,11 +1335,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2138846136"/>
-        <c:axId val="-2138848440"/>
+        <c:axId val="2020442536"/>
+        <c:axId val="2020496280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2141716920"/>
+        <c:axId val="2067467672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2114,7 +1349,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137854968"/>
+        <c:crossAx val="2067559032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2122,7 +1357,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2137854968"/>
+        <c:axId val="2067559032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2138,12 +1373,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2141716920"/>
+        <c:crossAx val="2067467672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2138848440"/>
+        <c:axId val="2020496280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2153,12 +1388,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138846136"/>
+        <c:crossAx val="2020442536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2138846136"/>
+        <c:axId val="2020442536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2167,7 +1402,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138848440"/>
+        <c:crossAx val="2020496280"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2177,6 +1413,661 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>6 CORES, LOTE DE TAREAS CON</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> BLOQUEO PARCIAL</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>salida_ejercicio7.tsk_.csv!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ÚLTIMO TICK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>salida_ejercicio7.tsk_.csv!$B$152:$B$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>salida_ejercicio7.tsk_.csv!$C$152:$C$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>398.812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>386.134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>375.504</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>370.102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>366.764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>366.254</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>364.952</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>364.724</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>364.348</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>364.33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>364.42</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>363.788</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>363.988</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>363.406</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>363.754</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>362.886</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>362.938</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>salida_ejercicio7.tsk_.csv!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TIEMPO ESPERA PROMEDIO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>salida_ejercicio7.tsk_.csv!$B$152:$B$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>salida_ejercicio7.tsk_.csv!$D$152:$D$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>231.564</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>215.262</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>203.985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>199.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>195.787</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>194.667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>193.818</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>193.114</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>193.041</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>192.753</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>192.947</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>192.662</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>192.364</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>192.635</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>192.403</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>192.666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>192.002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>salida_ejercicio7.tsk_.csv!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TIEMPO ESPERA MÁXIMO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>salida_ejercicio7.tsk_.csv!$B$152:$B$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>salida_ejercicio7.tsk_.csv!$E$152:$E$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>287.892</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>278.956</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>270.244</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>268.132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>265.66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>265.288</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>265.988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265.494</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>266.428</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>265.634</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>266.21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>266.034</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>265.746</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>265.784</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>265.392</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>265.448</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>265.162</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2067566712"/>
+        <c:axId val="2020432376"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>salida_ejercicio7.tsk_.csv!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EFICIENCIA EN USO DE CPU (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>salida_ejercicio7.tsk_.csv!$F$152:$F$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>32.5205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.5533</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.5024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.3807</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.5119</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.5322</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.5703</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.5735</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.5624</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.6271</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35.6068</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35.6637</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35.6284</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.7135</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35.7098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2065037208"/>
+        <c:axId val="2074609768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2067566712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2020432376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2020432376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="2067566712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2074609768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2065037208"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="2065037208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2074609768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2216,16 +2107,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>6 CORES, LOTE DE TAREAS CON</a:t>
+              <a:t>8</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> BLOQUEO PARCIAL</a:t>
+              <a:t> CORES, LOTE DE TAREAS CON BLOQUEO PARCIAL</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2253,7 +2144,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>salida_ejercicio7.tsk_.csv!$B$152:$B$168</c:f>
+              <c:f>salida_ejercicio7.tsk_.csv!$B$202:$B$218</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2313,60 +2204,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>salida_ejercicio7.tsk_.csv!$C$152:$C$168</c:f>
+              <c:f>salida_ejercicio7.tsk_.csv!$C$202:$C$218</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>398.812</c:v>
+                  <c:v>372.128</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>386.134</c:v>
+                  <c:v>335.572</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>375.504</c:v>
+                  <c:v>323.192</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>370.102</c:v>
+                  <c:v>317.384</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>366.764</c:v>
+                  <c:v>313.156</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>366.254</c:v>
+                  <c:v>310.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>364.952</c:v>
+                  <c:v>309.132</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>364.724</c:v>
+                  <c:v>307.922</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>364.348</c:v>
+                  <c:v>307.884</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>364.33</c:v>
+                  <c:v>307.632</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>364.42</c:v>
+                  <c:v>308.004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>363.788</c:v>
+                  <c:v>308.022</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>363.988</c:v>
+                  <c:v>307.668</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>363.406</c:v>
+                  <c:v>307.412</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>363.754</c:v>
+                  <c:v>306.748</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>362.886</c:v>
+                  <c:v>308.062</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>362.938</c:v>
+                  <c:v>307.528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2392,7 +2283,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>salida_ejercicio7.tsk_.csv!$B$152:$B$168</c:f>
+              <c:f>salida_ejercicio7.tsk_.csv!$B$202:$B$218</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2452,60 +2343,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>salida_ejercicio7.tsk_.csv!$D$152:$D$168</c:f>
+              <c:f>salida_ejercicio7.tsk_.csv!$D$202:$D$218</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>231.564</c:v>
+                  <c:v>204.97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>215.262</c:v>
+                  <c:v>175.115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>203.985</c:v>
+                  <c:v>163.693</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>199.32</c:v>
+                  <c:v>158.236</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>195.787</c:v>
+                  <c:v>154.457</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>194.667</c:v>
+                  <c:v>152.376</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>193.818</c:v>
+                  <c:v>151.88</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>193.114</c:v>
+                  <c:v>150.76</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>193.041</c:v>
+                  <c:v>150.563</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>192.753</c:v>
+                  <c:v>150.724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>192.947</c:v>
+                  <c:v>150.515</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>192.662</c:v>
+                  <c:v>150.413</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>192.364</c:v>
+                  <c:v>150.464</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>192.635</c:v>
+                  <c:v>150.051</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>192.403</c:v>
+                  <c:v>149.76</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>192.666</c:v>
+                  <c:v>150.235</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>192.002</c:v>
+                  <c:v>150.087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2531,7 +2422,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>salida_ejercicio7.tsk_.csv!$B$152:$B$168</c:f>
+              <c:f>salida_ejercicio7.tsk_.csv!$B$202:$B$218</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2591,60 +2482,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>salida_ejercicio7.tsk_.csv!$E$152:$E$168</c:f>
+              <c:f>salida_ejercicio7.tsk_.csv!$E$202:$E$218</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>287.892</c:v>
+                  <c:v>261.122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>278.956</c:v>
+                  <c:v>227.522</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>270.244</c:v>
+                  <c:v>217.912</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>268.132</c:v>
+                  <c:v>212.736</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>265.66</c:v>
+                  <c:v>209.794</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>265.288</c:v>
+                  <c:v>207.838</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>265.988</c:v>
+                  <c:v>207.622</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>265.494</c:v>
+                  <c:v>206.592</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>266.428</c:v>
+                  <c:v>206.492</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>265.634</c:v>
+                  <c:v>206.456</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>266.21</c:v>
+                  <c:v>206.508</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>266.034</c:v>
+                  <c:v>206.24</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>265.746</c:v>
+                  <c:v>206.28</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>265.784</c:v>
+                  <c:v>205.814</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>265.392</c:v>
+                  <c:v>205.75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>265.448</c:v>
+                  <c:v>206.446</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>265.162</c:v>
+                  <c:v>206.226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2661,8 +2552,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2139797880"/>
-        <c:axId val="2146114184"/>
+        <c:axId val="2074652824"/>
+        <c:axId val="2074656072"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2686,60 +2577,60 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>salida_ejercicio7.tsk_.csv!$F$152:$F$168</c:f>
+              <c:f>salida_ejercicio7.tsk_.csv!$F$202:$F$218</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>32.5205</c:v>
+                  <c:v>26.1076</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.5533</c:v>
+                  <c:v>28.9521</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.5024</c:v>
+                  <c:v>30.0648</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.009</c:v>
+                  <c:v>30.617</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.33</c:v>
+                  <c:v>31.033</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.3807</c:v>
+                  <c:v>31.2791</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.5119</c:v>
+                  <c:v>31.4405</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.5322</c:v>
+                  <c:v>31.5677</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.5703</c:v>
+                  <c:v>31.5727</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.5735</c:v>
+                  <c:v>31.5969</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35.5624</c:v>
+                  <c:v>31.5602</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35.6271</c:v>
+                  <c:v>31.5568</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35.6068</c:v>
+                  <c:v>31.594</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35.6637</c:v>
+                  <c:v>31.623</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35.6284</c:v>
+                  <c:v>31.6893</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35.7135</c:v>
+                  <c:v>31.5569</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35.7098</c:v>
+                  <c:v>31.6098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2756,11 +2647,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2142024808"/>
-        <c:axId val="2141763464"/>
+        <c:axId val="2074662296"/>
+        <c:axId val="2074659304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2139797880"/>
+        <c:axId val="2074652824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2770,7 +2661,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146114184"/>
+        <c:crossAx val="2074656072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2778,7 +2669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2146114184"/>
+        <c:axId val="2074656072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2794,12 +2685,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2139797880"/>
+        <c:crossAx val="2074652824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2141763464"/>
+        <c:axId val="2074659304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2809,12 +2700,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142024808"/>
+        <c:crossAx val="2074662296"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2142024808"/>
+        <c:axId val="2074662296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2823,7 +2714,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141763464"/>
+        <c:crossAx val="2074659304"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2832,7 +2724,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2872,13 +2763,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>8</a:t>
+              <a:t>2 CORES, LOTE DE TAREAS CON BLOQUEO PARCIAL</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> CORES, LOTE DE TAREAS CON BLOQUEO PARCIAL</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2910,7 +2796,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>salida_ejercicio7.tsk_.csv!$B$202:$B$218</c:f>
+              <c:f>salida_ejercicio7.tsk_.csv!$B$52:$B$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2970,60 +2856,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>salida_ejercicio7.tsk_.csv!$C$202:$C$218</c:f>
+              <c:f>salida_ejercicio7.tsk_.csv!$C$52:$C$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>372.128</c:v>
+                  <c:v>1278.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>335.572</c:v>
+                  <c:v>890.242</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>323.192</c:v>
+                  <c:v>798.146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>317.384</c:v>
+                  <c:v>761.1660000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>313.156</c:v>
+                  <c:v>739.888</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>310.7</c:v>
+                  <c:v>728.624</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>309.132</c:v>
+                  <c:v>722.502</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>307.922</c:v>
+                  <c:v>716.204</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>307.884</c:v>
+                  <c:v>713.504</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>307.632</c:v>
+                  <c:v>711.948</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>308.004</c:v>
+                  <c:v>711.496</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>308.022</c:v>
+                  <c:v>711.346</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>307.668</c:v>
+                  <c:v>710.534</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>307.412</c:v>
+                  <c:v>711.26</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>306.748</c:v>
+                  <c:v>709.422</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>308.062</c:v>
+                  <c:v>709.674</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>307.528</c:v>
+                  <c:v>707.684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3049,7 +2935,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>salida_ejercicio7.tsk_.csv!$B$202:$B$218</c:f>
+              <c:f>salida_ejercicio7.tsk_.csv!$B$52:$B$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3109,60 +2995,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>salida_ejercicio7.tsk_.csv!$D$202:$D$218</c:f>
+              <c:f>salida_ejercicio7.tsk_.csv!$D$52:$D$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>204.97</c:v>
+                  <c:v>1047.43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>175.115</c:v>
+                  <c:v>655.135</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>163.693</c:v>
+                  <c:v>569.992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>158.236</c:v>
+                  <c:v>532.594</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>154.457</c:v>
+                  <c:v>510.636</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>152.376</c:v>
+                  <c:v>502.549</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>151.88</c:v>
+                  <c:v>496.303</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>150.76</c:v>
+                  <c:v>488.431</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>150.563</c:v>
+                  <c:v>485.838</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>150.724</c:v>
+                  <c:v>484.831</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>150.515</c:v>
+                  <c:v>485.187</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>150.413</c:v>
+                  <c:v>483.462</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>150.464</c:v>
+                  <c:v>484.218</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>150.051</c:v>
+                  <c:v>484.205</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>149.76</c:v>
+                  <c:v>481.778</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>150.235</c:v>
+                  <c:v>485.224</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>150.087</c:v>
+                  <c:v>480.645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3188,7 +3074,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>salida_ejercicio7.tsk_.csv!$B$202:$B$218</c:f>
+              <c:f>salida_ejercicio7.tsk_.csv!$B$52:$B$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3248,60 +3134,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>salida_ejercicio7.tsk_.csv!$E$202:$E$218</c:f>
+              <c:f>salida_ejercicio7.tsk_.csv!$E$52:$E$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>261.122</c:v>
+                  <c:v>1165.59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>227.522</c:v>
+                  <c:v>787.068</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>217.912</c:v>
+                  <c:v>700.746</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>212.736</c:v>
+                  <c:v>667.958</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>209.794</c:v>
+                  <c:v>648.62</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>207.838</c:v>
+                  <c:v>639.462</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>207.622</c:v>
+                  <c:v>634.056</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>206.592</c:v>
+                  <c:v>627.646</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>206.492</c:v>
+                  <c:v>625.88</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>206.456</c:v>
+                  <c:v>625.4299999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>206.508</c:v>
+                  <c:v>625.12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>206.24</c:v>
+                  <c:v>625.196</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>206.28</c:v>
+                  <c:v>624.062</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>205.814</c:v>
+                  <c:v>625.526</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>205.75</c:v>
+                  <c:v>623.638</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>206.446</c:v>
+                  <c:v>624.148</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>206.226</c:v>
+                  <c:v>621.768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3318,8 +3204,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2136484824"/>
-        <c:axId val="2146414312"/>
+        <c:axId val="2074469832"/>
+        <c:axId val="2074466440"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3343,60 +3229,60 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>salida_ejercicio7.tsk_.csv!$F$202:$F$218</c:f>
+              <c:f>salida_ejercicio7.tsk_.csv!$F$52:$F$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>26.1076</c:v>
+                  <c:v>30.3836</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.9521</c:v>
+                  <c:v>43.6659</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.0648</c:v>
+                  <c:v>48.6914</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.617</c:v>
+                  <c:v>51.0582</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.033</c:v>
+                  <c:v>52.5276</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.2791</c:v>
+                  <c:v>53.3431</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.4405</c:v>
+                  <c:v>53.7981</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.5677</c:v>
+                  <c:v>54.27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.5727</c:v>
+                  <c:v>54.4765</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.5969</c:v>
+                  <c:v>54.5968</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.5602</c:v>
+                  <c:v>54.6315</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31.5568</c:v>
+                  <c:v>54.6459</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31.594</c:v>
+                  <c:v>54.7055</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31.623</c:v>
+                  <c:v>54.6523</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31.6893</c:v>
+                  <c:v>54.795</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31.5569</c:v>
+                  <c:v>54.775</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31.6098</c:v>
+                  <c:v>54.926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3413,11 +3299,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2136002968"/>
-        <c:axId val="-2136888168"/>
+        <c:axId val="2081276728"/>
+        <c:axId val="2081278376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2136484824"/>
+        <c:axId val="2074469832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3427,7 +3313,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146414312"/>
+        <c:crossAx val="2074466440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3435,7 +3321,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2146414312"/>
+        <c:axId val="2074466440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3451,12 +3337,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2136484824"/>
+        <c:crossAx val="2074469832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2136888168"/>
+        <c:axId val="2081278376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3466,12 +3352,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136002968"/>
+        <c:crossAx val="2081276728"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2136002968"/>
+        <c:axId val="2081276728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3480,7 +3366,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136888168"/>
+        <c:crossAx val="2081278376"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3539,36 +3425,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
@@ -3590,7 +3446,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3620,7 +3476,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3642,6 +3498,36 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3983,8 +3869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C202" sqref="C202:F218"/>
+    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
